--- a/biology/Zoologie/Friedrich_Bohndorff/Friedrich_Bohndorff.xlsx
+++ b/biology/Zoologie/Friedrich_Bohndorff/Friedrich_Bohndorff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Bohndorff, né le 16 août 1848 à Plau et mort après 1894, est un explorateur allemand de l'Afrique et un ornithologue.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Bohndorff suit un apprentissage d'orfèvre, avant d'effectuer en 1871 un long voyage qui le mène en Suisse, au nord du royaume d'Italie, puis en Tunisie. Ensuite, il se rend par Malte en Égypte, où il demeure quatre ans au Caire et y apprend l'arabe. Entre 1876 et 1879, il effectue une expédition au Soudan, jusqu'au centre de l'Afrique, mais au retour, il échappe à une attaque et perd ses collections et ses dessins. Il se met ensuite à la disposition de Wilhelm Junker entre 1880 et 1887 qui organise plusieurs expéditions.
 Ainsi, ils partent de Khartoum en janvier 1880 pour traverser les territoires des Mangbetus et des Zandés (Niam-Niams) sur les traces de l'itinéraire de Georg Schweinfurth. Ils découvrent les sources de l'Uele et de l'Aruwimi, mais, malade, Bohndorff doit retourner. La révolte des Mahdistes l'en empêche et il demeure donc pendant un an dans le Bahr el-Ghazal au milieu du peuple des Dinkas.
@@ -545,7 +559,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bohndorff a découvert et décrit de nombreuses espèces d'insectes et d'oiseaux, parmi lesquelles:
 Anthus leucophrys bohndorffi, sous-espèce de pipit
